--- a/cypress/fixtures/flightDetails.xlsx
+++ b/cypress/fixtures/flightDetails.xlsx
@@ -5,18 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Cypress_task\cypress\fixtures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Cypress_latest\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5832" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5832" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Booking Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Card Details" sheetId="6" r:id="rId2"/>
-    <sheet name="Child" sheetId="4" r:id="rId3"/>
-    <sheet name="Infant" sheetId="5" r:id="rId4"/>
-    <sheet name="Adult" sheetId="2" r:id="rId5"/>
+    <sheet name="Roundtrip" sheetId="7" r:id="rId2"/>
+    <sheet name="multicity threesegment" sheetId="8" r:id="rId3"/>
+    <sheet name="multicity sixsegment" sheetId="9" r:id="rId4"/>
+    <sheet name="Card Details" sheetId="6" r:id="rId5"/>
+    <sheet name="Child" sheetId="4" r:id="rId6"/>
+    <sheet name="Infant" sheetId="5" r:id="rId7"/>
+    <sheet name="Adult" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="85">
   <si>
     <t>LHR</t>
   </si>
@@ -163,6 +166,126 @@
   </si>
   <si>
     <t>Miss</t>
+  </si>
+  <si>
+    <t>PID Date</t>
+  </si>
+  <si>
+    <t>PID Month</t>
+  </si>
+  <si>
+    <t>PID Year</t>
+  </si>
+  <si>
+    <t>PED Date</t>
+  </si>
+  <si>
+    <t>PED Month</t>
+  </si>
+  <si>
+    <t>PED Year</t>
+  </si>
+  <si>
+    <t>Return Date</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>IRT</t>
+  </si>
+  <si>
+    <t>Key Parameter</t>
+  </si>
+  <si>
+    <t>Language Code</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>Segment 1 Departure</t>
+  </si>
+  <si>
+    <t>Segment 1 Return</t>
+  </si>
+  <si>
+    <t>Segment 1 Date</t>
+  </si>
+  <si>
+    <t>Segment 2 Departure</t>
+  </si>
+  <si>
+    <t>Segment 2 Return</t>
+  </si>
+  <si>
+    <t>Segment 2 Date</t>
+  </si>
+  <si>
+    <t>Segment 3 Departure</t>
+  </si>
+  <si>
+    <t>Segment 3 Return</t>
+  </si>
+  <si>
+    <t>Segment 3 Date</t>
+  </si>
+  <si>
+    <t>Segment 1 Class</t>
+  </si>
+  <si>
+    <t>Segment 2 Class</t>
+  </si>
+  <si>
+    <t>Segment 3 Class</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>Segment 4 Departure</t>
+  </si>
+  <si>
+    <t>Segment 4 Return</t>
+  </si>
+  <si>
+    <t>Segment 4 Date</t>
+  </si>
+  <si>
+    <t>Segment 4 Class</t>
+  </si>
+  <si>
+    <t>Segment 5 Departure</t>
+  </si>
+  <si>
+    <t>Segment 5 Return</t>
+  </si>
+  <si>
+    <t>Segment 5 Date</t>
+  </si>
+  <si>
+    <t>Segment 5 Class</t>
+  </si>
+  <si>
+    <t>Segment 6 Departure</t>
+  </si>
+  <si>
+    <t>Segment 6 Return</t>
+  </si>
+  <si>
+    <t>Segment 6 Date</t>
+  </si>
+  <si>
+    <t>Segment 6 Class</t>
+  </si>
+  <si>
+    <t>NMC</t>
+  </si>
+  <si>
+    <t>OW</t>
   </si>
 </sst>
 </file>
@@ -170,7 +293,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-14009]dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -217,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -236,6 +359,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,60 +682,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.578125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="16.5234375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="19.5234375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="19.5234375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.5234375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="19.5234375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="O1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -611,72 +749,82 @@
         <v>15</v>
       </c>
       <c r="C2" s="7">
-        <v>45362</v>
-      </c>
-      <c r="D2" s="3" t="s">
+        <v>45515</v>
+      </c>
+      <c r="D2" s="7">
+        <v>45454</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>2</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
-      <c r="J2" s="2" t="b">
-        <v>0</v>
+      <c r="J2" s="2">
+        <v>1</v>
       </c>
       <c r="K2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="M2" s="2" t="b">
+      <c r="L2" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="2"/>
+      <c r="D3" s="7">
         <v>45484</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>3</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="J3" s="2" t="b">
+      <c r="J3" s="2">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="M3" s="2" t="b">
+      <c r="L3" s="2" t="b">
         <v>0</v>
+      </c>
+      <c r="N3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -686,6 +834,515 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="8.20703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.3125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="9">
+        <v>45607</v>
+      </c>
+      <c r="D2" s="9">
+        <v>45637</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="17" max="17" width="10.7890625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10">
+        <v>45602</v>
+      </c>
+      <c r="D2" s="10">
+        <v>45606</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>45602</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="10">
+        <v>45606</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y2" s="10">
+        <v>45609</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:33" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10">
+        <v>45602</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="10">
+        <v>45610</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="10">
+        <v>45611</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="10">
+        <v>45614</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="10">
+        <v>45621</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="10">
+        <v>45623</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -699,17 +1356,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -737,8 +1394,26 @@
       <c r="I1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -766,8 +1441,26 @@
       <c r="I2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2">
+        <v>2022</v>
+      </c>
+      <c r="M2">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -795,8 +1488,26 @@
       <c r="I3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3">
+        <v>2022</v>
+      </c>
+      <c r="M3">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -824,8 +1535,26 @@
       <c r="I4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4">
+        <v>2022</v>
+      </c>
+      <c r="M4">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -852,6 +1581,24 @@
       </c>
       <c r="I5" t="s">
         <v>29</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5">
+        <v>2022</v>
+      </c>
+      <c r="M5">
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5">
+        <v>2033</v>
       </c>
     </row>
   </sheetData>
@@ -859,17 +1606,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -897,8 +1644,26 @@
       <c r="I1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -926,8 +1691,26 @@
       <c r="I2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2">
+        <v>2024</v>
+      </c>
+      <c r="M2">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -955,8 +1738,26 @@
       <c r="I3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3">
+        <v>2024</v>
+      </c>
+      <c r="M3">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -984,8 +1785,26 @@
       <c r="I4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4">
+        <v>2024</v>
+      </c>
+      <c r="M4">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1012,6 +1831,24 @@
       </c>
       <c r="I5" t="s">
         <v>29</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5">
+        <v>2024</v>
+      </c>
+      <c r="M5">
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5">
+        <v>2034</v>
       </c>
     </row>
   </sheetData>
@@ -1019,17 +1856,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1057,8 +1894,26 @@
       <c r="I1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1086,8 +1941,26 @@
       <c r="I2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2">
+        <v>2022</v>
+      </c>
+      <c r="M2">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1115,8 +1988,26 @@
       <c r="I3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3">
+        <v>2022</v>
+      </c>
+      <c r="M3">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1144,8 +2035,26 @@
       <c r="I4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4">
+        <v>2022</v>
+      </c>
+      <c r="M4">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1172,6 +2081,24 @@
       </c>
       <c r="I5" t="s">
         <v>29</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5">
+        <v>2022</v>
+      </c>
+      <c r="M5">
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5">
+        <v>2033</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/flightDetails.xlsx
+++ b/cypress/fixtures/flightDetails.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="93">
   <si>
     <t>LHR</t>
   </si>
@@ -286,6 +286,30 @@
   </si>
   <si>
     <t>OW</t>
+  </si>
+  <si>
+    <t>Cabin Class 2</t>
+  </si>
+  <si>
+    <t>Departure Location 2</t>
+  </si>
+  <si>
+    <t>Return Location 2</t>
+  </si>
+  <si>
+    <t>Departure Date 2</t>
+  </si>
+  <si>
+    <t>Departure Location 3</t>
+  </si>
+  <si>
+    <t>Return Location 3</t>
+  </si>
+  <si>
+    <t>Departure Date 3</t>
+  </si>
+  <si>
+    <t>Cabin Class 3</t>
   </si>
 </sst>
 </file>
@@ -682,66 +706,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5234375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="4" width="19.5234375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="19.5234375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5234375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19.5234375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -749,81 +770,77 @@
         <v>15</v>
       </c>
       <c r="C2" s="7">
-        <v>45515</v>
-      </c>
-      <c r="D2" s="7">
-        <v>45454</v>
-      </c>
-      <c r="E2" s="3" t="s">
+        <v>45637</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
       <c r="G2" s="2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2">
         <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
-      <c r="J2" s="2">
-        <v>1</v>
+      <c r="J2" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="K2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" s="2" t="b">
+      <c r="M2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="N2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="7">
+      <c r="C3" s="7">
         <v>45484</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
       <c r="G3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L3" s="2" t="b">
+      <c r="M3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="N3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="N3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -949,18 +966,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="17" max="17" width="10.7890625" customWidth="1"/>
+    <col min="3" max="3" width="11.89453125" customWidth="1"/>
+    <col min="16" max="16" width="11.89453125" customWidth="1"/>
+    <col min="20" max="20" width="11.89453125" customWidth="1"/>
+    <col min="22" max="22" width="16.5234375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -971,76 +991,64 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>92</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1050,74 +1058,67 @@
       <c r="C2" s="10">
         <v>45602</v>
       </c>
-      <c r="D2" s="10">
-        <v>45606</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>56</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="G2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="K2" s="2" t="b">
-        <v>0</v>
+      <c r="K2" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="10">
-        <v>45602</v>
+      <c r="P2" s="10">
+        <v>45609</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="U2" s="10">
-        <v>45606</v>
-      </c>
-      <c r="V2" s="2" t="s">
+      <c r="T2" s="10">
+        <v>45611</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y2" s="10">
-        <v>45609</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>56</v>
+      <c r="V2" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V3" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
